--- a/Session 2/Data Sources/DataAnalysis.xlsx
+++ b/Session 2/Data Sources/DataAnalysis.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://b2wcompletetraining057-my.sharepoint.com/personal/michael_chittenden_justit_co_uk/Documents/Scenario-Demonstration-Training/Session 2/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFEDC17-B090-4127-85B7-50BDC3E94275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{ECFEDC17-B090-4127-85B7-50BDC3E94275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4911F0F-03D4-41DE-B2BB-F00101E49355}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{9BB4D2A1-FDFC-4D4B-95EB-21AD45D4BCEB}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9BB4D2A1-FDFC-4D4B-95EB-21AD45D4BCEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="9" r:id="rId1"/>
-    <sheet name="Level 2" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId2"/>
+    <sheet name="Level 2" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,8 +62,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="145">
   <si>
     <t>PT1001</t>
   </si>
@@ -524,7 +550,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -532,11 +558,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -562,6 +699,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,9 +740,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -618,6 +761,9 @@
       <alignment horizontal="general" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
@@ -631,6 +777,964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Chittenden" refreshedDate="46013.379396875003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{61114D7F-0937-4A7A-BF43-1F1D37EA4D59}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table469"/>
+  </cacheSource>
+  <cacheFields count="21">
+    <cacheField name=" Patient ID " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Full" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DOB" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1970-01-06T00:00:00" maxDate="1990-11-24T00:00:00" count="4">
+        <d v="1984-05-12T00:00:00"/>
+        <d v="1970-06-01T00:00:00"/>
+        <d v="1970-01-06T00:00:00"/>
+        <d v="1990-11-23T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Simple Age" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="55"/>
+    </cacheField>
+    <cacheField name="Birth Month" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="11" count="4">
+        <n v="5"/>
+        <n v="6"/>
+        <n v="1"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Current Month" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Calculated Age" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Calculated Age2" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="55"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GP" numFmtId="0">
+      <sharedItems count="2">
+        <s v="HEALTH CENTRE NORTH"/>
+        <s v="DR ADAMS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="On Meds?" numFmtId="0">
+      <sharedItems count="2">
+        <s v="NO"/>
+        <s v="YES"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Appt Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="DNA" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dept" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2025" maxValue="2025"/>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Outcome" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Follow Up" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Attendance Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Follow Up action" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1020238556"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+  <r>
+    <s v="PT1001"/>
+    <s v="John"/>
+    <s v="SMITH"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="2"/>
+    <s v="Ongoing"/>
+    <x v="0"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1002"/>
+    <s v="Jane"/>
+    <s v="DOE"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1003"/>
+    <s v="Alice"/>
+    <s v="BROWN"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1004"/>
+    <s v="Robert"/>
+    <s v="JONES"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="5"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1005"/>
+    <s v="Sarah"/>
+    <s v="WHITE"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="6"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1006"/>
+    <s v="Michael"/>
+    <s v="GREEN"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="7"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1007"/>
+    <s v="Emily"/>
+    <s v="BLACK"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="Yes"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="8"/>
+    <s v="Improved"/>
+    <x v="0"/>
+    <s v="Has Missed Appointment"/>
+    <s v="Escalate"/>
+  </r>
+  <r>
+    <s v="PT1008"/>
+    <s v="Thomas"/>
+    <s v="HARRIS"/>
+    <x v="2"/>
+    <n v="55"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="9"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1009"/>
+    <s v="Laura"/>
+    <s v="WILSON"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="10"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1010"/>
+    <s v="David"/>
+    <s v="CLARK"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="11"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1011"/>
+    <s v="Emma"/>
+    <s v="LEWIS"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="12"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1012"/>
+    <s v="Daniel"/>
+    <s v="WALKER"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="1"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1013"/>
+    <s v="Olivia"/>
+    <s v="HALL"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="2"/>
+    <s v="Ongoing"/>
+    <x v="0"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1014"/>
+    <s v="James"/>
+    <s v="YOUNG"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <s v="Yes"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Missed Appointment"/>
+    <s v="Escalate"/>
+  </r>
+  <r>
+    <s v="PT1015"/>
+    <s v="Sophia"/>
+    <s v="KING"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1016"/>
+    <s v="Matthew"/>
+    <s v="WRIGHT"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="5"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1017"/>
+    <s v="Isla"/>
+    <s v="LOPEZ"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="6"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1018"/>
+    <s v="Benjamin"/>
+    <s v="SCOTT"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="7"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1019"/>
+    <s v="Amelia"/>
+    <s v="ADAMS"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="8"/>
+    <s v="Improved"/>
+    <x v="0"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1020"/>
+    <s v="Lucas"/>
+    <s v="BAKER"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="9"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1021"/>
+    <s v="Grace"/>
+    <s v="NELSON"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="Yes"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="10"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Missed Appointment"/>
+    <s v="Reminder"/>
+  </r>
+  <r>
+    <s v="PT1022"/>
+    <s v="Henry"/>
+    <s v="CARTER"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="11"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1023"/>
+    <s v="Chloe"/>
+    <s v="MITCHELL"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="12"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1024"/>
+    <s v="Noah"/>
+    <s v="PEREZ"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="1"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1025"/>
+    <s v="Ella"/>
+    <s v="ROBERTS"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="2"/>
+    <s v="Ongoing"/>
+    <x v="0"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1026"/>
+    <s v="Samuel"/>
+    <s v="TURNER"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1027"/>
+    <s v="Mia"/>
+    <s v="PHILLIPS"/>
+    <x v="2"/>
+    <n v="55"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1028"/>
+    <s v="Oliver"/>
+    <s v="CAMPBELL"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <s v="Yes"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="5"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Missed Appointment"/>
+    <s v="Escalate"/>
+  </r>
+  <r>
+    <s v="PT1029"/>
+    <s v="Lily"/>
+    <s v="PARKER"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="6"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1030"/>
+    <s v="Ethan"/>
+    <s v="EVANS"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="7"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1031"/>
+    <s v="Zoe"/>
+    <s v="EDWARDS"/>
+    <x v="3"/>
+    <n v="35"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="8"/>
+    <s v="Improved"/>
+    <x v="0"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1032"/>
+    <s v="Joshua"/>
+    <s v="COLLINS"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="9"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1033"/>
+    <s v="Ava"/>
+    <s v="STEWART"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="10"/>
+    <s v="Ongoing"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1034"/>
+    <s v="Ryan"/>
+    <s v="MORRIS"/>
+    <x v="0"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="No"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="11"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Not Missed Appointment"/>
+    <s v="NO action required"/>
+  </r>
+  <r>
+    <s v="PT1035"/>
+    <s v="Hannah"/>
+    <s v="ROGERS"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Yes"/>
+    <s v="Cardiology"/>
+    <n v="2025"/>
+    <n v="12"/>
+    <s v="Improved"/>
+    <x v="1"/>
+    <s v="Has Missed Appointment"/>
+    <s v="Reminder"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5385CB7-A159-4308-91FA-37B7D3B087D4}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,25 +1755,35 @@
     <tableColumn id="12" xr3:uid="{7353B3EE-CA22-4DF5-942D-06BA86579F04}" name="Month"/>
     <tableColumn id="13" xr3:uid="{6759A76F-2370-429F-A221-1B39DE7EDAED}" name="Outcome"/>
     <tableColumn id="14" xr3:uid="{279255DA-7390-40DD-AF88-F66DB9AE3477}" name="Follow Up"/>
-    <tableColumn id="19" xr3:uid="{531A00A7-741B-4C81-A98E-FE543B4BD1E7}" name="Attendance Status" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{531A00A7-741B-4C81-A98E-FE543B4BD1E7}" name="Attendance Status" dataDxfId="11">
+      <calculatedColumnFormula>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5D5AF-A45C-4D23-B4A4-503C1E6FEB22}" name="Table469" displayName="Table469" ref="A3:U38" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5D5AF-A45C-4D23-B4A4-503C1E6FEB22}" name="Table469" displayName="Table469" ref="A3:U38" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A3:U38" xr:uid="{B5E33AA9-D9A2-429B-AA7C-2FD5D18346FC}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{E49B65D3-9D8E-4970-A9E8-04AD52D3536D}" name=" Patient ID "/>
     <tableColumn id="2" xr3:uid="{53ABDA53-1F6E-4A87-992E-682D736DA281}" name="Full"/>
     <tableColumn id="3" xr3:uid="{02E1E92D-4FD4-47F0-B434-6123D523CEED}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{F682434D-A6B5-4924-BC14-D70EB3D5B83B}" name="DOB" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{72A21E61-FDA7-48E0-BB2F-8A41BF1B83D9}" name="Simple Age" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{21A58180-7406-4E4C-AB07-2C237724DABB}" name="Birth Month" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{85AE96F9-A575-401D-B5C5-635B7EC0DFA3}" name="Current Month" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{A7CD2952-1629-454C-8DCC-17F526FEBED8}" name="Calculated Age" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{C8BACC46-6D05-48DC-87A4-16C18F7948BF}" name="Calculated Age2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F682434D-A6B5-4924-BC14-D70EB3D5B83B}" name="DOB" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{72A21E61-FDA7-48E0-BB2F-8A41BF1B83D9}" name="Simple Age" dataDxfId="8">
+      <calculatedColumnFormula>YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{21A58180-7406-4E4C-AB07-2C237724DABB}" name="Birth Month" dataDxfId="7">
+      <calculatedColumnFormula>MONTH(Table469[[#This Row],[DOB]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{85AE96F9-A575-401D-B5C5-635B7EC0DFA3}" name="Current Month" dataDxfId="6">
+      <calculatedColumnFormula>MONTH(TODAY())</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{A7CD2952-1629-454C-8DCC-17F526FEBED8}" name="Calculated Age" dataDxfId="5">
+      <calculatedColumnFormula>IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{C8BACC46-6D05-48DC-87A4-16C18F7948BF}" name="Calculated Age2" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{7D9EDD0A-C071-4598-BE75-C7AD65B5FD06}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{5F516E8D-5EB6-48DE-A7F8-A23E04951C58}" name="GP"/>
     <tableColumn id="7" xr3:uid="{6E311AC3-9F89-43C9-81BC-D4D548A1B31C}" name="On Meds?"/>
@@ -680,10 +1794,12 @@
     <tableColumn id="12" xr3:uid="{886EDEBA-AE46-49DA-B105-4D5E877207C7}" name="Month"/>
     <tableColumn id="13" xr3:uid="{EB2CEA37-ADAE-4324-88F1-B48E6BFF89ED}" name="Outcome"/>
     <tableColumn id="14" xr3:uid="{C6623F14-441E-4A45-B41D-1CE956A593BC}" name="Follow Up"/>
-    <tableColumn id="19" xr3:uid="{B6928144-F8C3-4EF9-A3B3-9F8C741C9CE1}" name="Attendance Status" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{B6928144-F8C3-4EF9-A3B3-9F8C741C9CE1}" name="Attendance Status" dataDxfId="3">
       <calculatedColumnFormula>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{C610BB5F-E4FA-4841-888D-9EF28367A476}" name="Follow Up action" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{C610BB5F-E4FA-4841-888D-9EF28367A476}" name="Follow Up action" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32680BBC-64E8-48F4-BC1E-787BBAED8270}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +2165,7 @@
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>130</v>
       </c>
@@ -1067,7 +2183,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1114,7 +2230,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +2273,16 @@
       <c r="N4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTA(Table46[[ Patient ID ]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1201,8 +2325,16 @@
       <c r="N5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(Table46[Appt Count])</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1245,8 +2377,16 @@
       <c r="N6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE(Table46[Appt Count])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1289,8 +2429,12 @@
       <c r="N7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1333,8 +2477,16 @@
       <c r="N8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+      <c r="Q8">
+        <f>COUNTIF(Table46[DNA],"Yes")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1377,8 +2529,12 @@
       <c r="N9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1421,8 +2577,23 @@
       <c r="N10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has Missed Appt</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10">
+        <f>SUMIF(Table46[Gender],"M",Table46[Appt Count])</f>
+        <v>54</v>
+      </c>
+      <c r="S10">
+        <f>AVERAGEIF(Table46[Gender],"M",Table46[Appt Count])</f>
+        <v>2.8421052631578947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1465,8 +2636,23 @@
       <c r="N11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11">
+        <f>SUMIF(Table46[Gender],"F",Table46[Appt Count])</f>
+        <v>51</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGEIF(Table46[Gender],"F",Table46[Appt Count])</f>
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1509,8 +2695,12 @@
       <c r="N12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1553,8 +2743,12 @@
       <c r="N13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1597,8 +2791,12 @@
       <c r="N14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1641,8 +2839,12 @@
       <c r="N15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +2887,12 @@
       <c r="N16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1729,8 +2935,12 @@
       <c r="N17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has Missed Appt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1773,8 +2983,12 @@
       <c r="N18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1817,8 +3031,12 @@
       <c r="N19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1861,8 +3079,12 @@
       <c r="N20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1905,8 +3127,12 @@
       <c r="N21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1949,8 +3175,12 @@
       <c r="N22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1993,8 +3223,12 @@
       <c r="N23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2037,8 +3271,12 @@
       <c r="N24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has Missed Appt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2081,8 +3319,12 @@
       <c r="N25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2125,8 +3367,12 @@
       <c r="N26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2169,8 +3415,12 @@
       <c r="N27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2213,8 +3463,12 @@
       <c r="N28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2257,8 +3511,12 @@
       <c r="N29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2301,8 +3559,12 @@
       <c r="N30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2345,8 +3607,12 @@
       <c r="N31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has Missed Appt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2389,8 +3655,12 @@
       <c r="N32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2433,8 +3703,12 @@
       <c r="N33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2477,8 +3751,12 @@
       <c r="N34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2521,8 +3799,12 @@
       <c r="N35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2565,8 +3847,12 @@
       <c r="N36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2609,8 +3895,12 @@
       <c r="N37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has not missed Appt</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2652,6 +3942,10 @@
       </c>
       <c r="N38" t="s">
         <v>1</v>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(Table46[[#This Row],[DNA]]="Yes","Has Missed Appt","Has not missed Appt")</f>
+        <v>Has Missed Appt</v>
       </c>
     </row>
   </sheetData>
@@ -2671,17 +3965,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1CBB3-AAD4-4D9E-9846-34A1E1AC494A}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B250BA-D121-4B99-9EB2-699DEC2E27E4}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
@@ -2806,6 +4205,25 @@
       <c r="D4" s="1">
         <v>30814</v>
       </c>
+      <c r="E4" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F4" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G38" ca="1" si="0">MONTH(TODAY())</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>41</v>
+      </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
@@ -2840,6 +4258,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U4" t="str" cm="1">
+        <f t="array" ref="U4">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2854,6 +4276,25 @@
       <c r="D5" s="1">
         <v>25720</v>
       </c>
+      <c r="E5" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F5" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>55</v>
+      </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
@@ -2888,6 +4329,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U5" t="str" cm="1">
+        <f t="array" ref="U5">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2902,6 +4347,25 @@
       <c r="D6" s="1">
         <v>25720</v>
       </c>
+      <c r="E6" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F6" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>55</v>
+      </c>
       <c r="J6" t="s">
         <v>51</v>
       </c>
@@ -2936,6 +4400,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U6" t="str" cm="1">
+        <f t="array" ref="U6">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2950,6 +4418,25 @@
       <c r="D7" s="1">
         <v>25720</v>
       </c>
+      <c r="E7" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F7" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55</v>
+      </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
@@ -2984,6 +4471,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U7" t="str" cm="1">
+        <f t="array" ref="U7">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2998,6 +4489,25 @@
       <c r="D8" s="1">
         <v>30814</v>
       </c>
+      <c r="E8" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>41</v>
+      </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
@@ -3032,6 +4542,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U8" t="str" cm="1">
+        <f t="array" ref="U8">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3046,6 +4560,25 @@
       <c r="D9" s="1">
         <v>25720</v>
       </c>
+      <c r="E9" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F9" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>55</v>
+      </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
@@ -3080,6 +4613,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U9" t="str" cm="1">
+        <f t="array" ref="U9">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3094,6 +4631,25 @@
       <c r="D10" s="1">
         <v>25720</v>
       </c>
+      <c r="E10" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F10" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>55</v>
+      </c>
       <c r="J10" t="s">
         <v>49</v>
       </c>
@@ -3128,6 +4684,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Missed Appointment</v>
       </c>
+      <c r="U10" t="str" cm="1">
+        <f t="array" ref="U10">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>Escalate</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3142,6 +4702,25 @@
       <c r="D11" s="1">
         <v>25574</v>
       </c>
+      <c r="E11" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>55</v>
+      </c>
       <c r="J11" t="s">
         <v>51</v>
       </c>
@@ -3176,6 +4755,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U11" t="str" cm="1">
+        <f t="array" ref="U11">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3190,6 +4773,25 @@
       <c r="D12" s="1">
         <v>30814</v>
       </c>
+      <c r="E12" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F12" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>41</v>
+      </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
@@ -3224,6 +4826,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U12" t="str" cm="1">
+        <f t="array" ref="U12">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3238,6 +4844,25 @@
       <c r="D13" s="1">
         <v>33200</v>
       </c>
+      <c r="E13" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F13" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>35</v>
+      </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
@@ -3272,6 +4897,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U13" t="str" cm="1">
+        <f t="array" ref="U13">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3286,6 +4915,25 @@
       <c r="D14" s="1">
         <v>33200</v>
       </c>
+      <c r="E14" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>35</v>
+      </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
@@ -3320,6 +4968,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" ref="U14">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3334,6 +4986,25 @@
       <c r="D15" s="1">
         <v>30814</v>
       </c>
+      <c r="E15" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F15" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>41</v>
+      </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
@@ -3368,6 +5039,10 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" ref="U15">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3382,6 +5057,25 @@
       <c r="D16" s="1">
         <v>25720</v>
       </c>
+      <c r="E16" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F16" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>55</v>
+      </c>
       <c r="J16" t="s">
         <v>49</v>
       </c>
@@ -3416,8 +5110,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="str" cm="1">
+        <f t="array" ref="U16">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3429,6 +5127,25 @@
       </c>
       <c r="D17" s="1">
         <v>25720</v>
+      </c>
+      <c r="E17" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F17" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>55</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
@@ -3464,8 +5181,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Missed Appointment</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="str" cm="1">
+        <f t="array" ref="U17">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>Escalate</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3477,6 +5198,25 @@
       </c>
       <c r="D18" s="1">
         <v>25720</v>
+      </c>
+      <c r="E18" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F18" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>55</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
@@ -3512,8 +5252,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="str" cm="1">
+        <f t="array" ref="U18">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3525,6 +5269,25 @@
       </c>
       <c r="D19" s="1">
         <v>25720</v>
+      </c>
+      <c r="E19" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H19" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -3560,8 +5323,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="str" cm="1">
+        <f t="array" ref="U19">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3573,6 +5340,25 @@
       </c>
       <c r="D20" s="1">
         <v>25720</v>
+      </c>
+      <c r="E20" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F20" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H20" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
@@ -3608,8 +5394,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="str" cm="1">
+        <f t="array" ref="U20">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3621,6 +5411,25 @@
       </c>
       <c r="D21" s="1">
         <v>33200</v>
+      </c>
+      <c r="E21" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F21" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>35</v>
       </c>
       <c r="J21" t="s">
         <v>49</v>
@@ -3656,8 +5465,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="str" cm="1">
+        <f t="array" ref="U21">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3669,6 +5482,25 @@
       </c>
       <c r="D22" s="1">
         <v>25720</v>
+      </c>
+      <c r="E22" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F22" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H22" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>55</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
@@ -3704,8 +5536,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="str" cm="1">
+        <f t="array" ref="U22">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3717,6 +5553,25 @@
       </c>
       <c r="D23" s="1">
         <v>33200</v>
+      </c>
+      <c r="E23" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F23" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H23" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>35</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -3752,8 +5607,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="str" cm="1">
+        <f t="array" ref="U23">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3765,6 +5624,25 @@
       </c>
       <c r="D24" s="1">
         <v>30814</v>
+      </c>
+      <c r="E24" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F24" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H24" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>41</v>
       </c>
       <c r="J24" t="s">
         <v>51</v>
@@ -3800,8 +5678,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Missed Appointment</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="str" cm="1">
+        <f t="array" ref="U24">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>Reminder</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3813,6 +5695,25 @@
       </c>
       <c r="D25" s="1">
         <v>30814</v>
+      </c>
+      <c r="E25" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F25" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H25" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>41</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -3848,8 +5749,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" t="str" cm="1">
+        <f t="array" ref="U25">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3861,6 +5766,25 @@
       </c>
       <c r="D26" s="1">
         <v>25720</v>
+      </c>
+      <c r="E26" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F26" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H26" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>55</v>
       </c>
       <c r="J26" t="s">
         <v>49</v>
@@ -3896,8 +5820,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="str" cm="1">
+        <f t="array" ref="U26">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3909,6 +5837,25 @@
       </c>
       <c r="D27" s="1">
         <v>30814</v>
+      </c>
+      <c r="E27" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F27" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H27" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>41</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
@@ -3944,8 +5891,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="str" cm="1">
+        <f t="array" ref="U27">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3957,6 +5908,25 @@
       </c>
       <c r="D28" s="1">
         <v>33200</v>
+      </c>
+      <c r="E28" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F28" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H28" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>35</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
@@ -3992,8 +5962,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="str" cm="1">
+        <f t="array" ref="U28">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4005,6 +5979,25 @@
       </c>
       <c r="D29" s="1">
         <v>30814</v>
+      </c>
+      <c r="E29" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H29" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>41</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
@@ -4040,8 +6033,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="str" cm="1">
+        <f t="array" ref="U29">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4053,6 +6050,25 @@
       </c>
       <c r="D30" s="1">
         <v>25574</v>
+      </c>
+      <c r="E30" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F30" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H30" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>55</v>
       </c>
       <c r="J30" t="s">
         <v>51</v>
@@ -4088,8 +6104,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="str" cm="1">
+        <f t="array" ref="U30">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4101,6 +6121,25 @@
       </c>
       <c r="D31" s="1">
         <v>30814</v>
+      </c>
+      <c r="E31" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F31" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H31" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>41</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
@@ -4136,8 +6175,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Missed Appointment</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="str" cm="1">
+        <f t="array" ref="U31">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>Escalate</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4149,6 +6192,25 @@
       </c>
       <c r="D32" s="1">
         <v>30814</v>
+      </c>
+      <c r="E32" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F32" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H32" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>41</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
@@ -4184,8 +6246,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="str" cm="1">
+        <f t="array" ref="U32">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4197,6 +6263,25 @@
       </c>
       <c r="D33" s="1">
         <v>30814</v>
+      </c>
+      <c r="E33" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F33" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H33" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>41</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
@@ -4232,8 +6317,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="str" cm="1">
+        <f t="array" ref="U33">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4245,6 +6334,25 @@
       </c>
       <c r="D34" s="1">
         <v>33200</v>
+      </c>
+      <c r="E34" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>35</v>
+      </c>
+      <c r="F34" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H34" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>35</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
@@ -4280,8 +6388,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" t="str" cm="1">
+        <f t="array" ref="U34">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4293,6 +6405,25 @@
       </c>
       <c r="D35" s="1">
         <v>25720</v>
+      </c>
+      <c r="E35" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F35" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H35" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>55</v>
       </c>
       <c r="J35" t="s">
         <v>51</v>
@@ -4328,8 +6459,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" t="str" cm="1">
+        <f t="array" ref="U35">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4341,6 +6476,25 @@
       </c>
       <c r="D36" s="1">
         <v>30814</v>
+      </c>
+      <c r="E36" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F36" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>41</v>
       </c>
       <c r="J36" t="s">
         <v>51</v>
@@ -4376,8 +6530,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" t="str" cm="1">
+        <f t="array" ref="U36">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4389,6 +6547,25 @@
       </c>
       <c r="D37" s="1">
         <v>30814</v>
+      </c>
+      <c r="E37" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>41</v>
+      </c>
+      <c r="F37" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>41</v>
       </c>
       <c r="J37" t="s">
         <v>51</v>
@@ -4424,8 +6601,12 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Not Missed Appointment</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" t="str" cm="1">
+        <f t="array" ref="U37">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>NO action required</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4437,6 +6618,25 @@
       </c>
       <c r="D38" s="1">
         <v>25720</v>
+      </c>
+      <c r="E38" s="3">
+        <f ca="1">YEAR(TODAY()) - YEAR(Table469[[#This Row],[DOB]])</f>
+        <v>55</v>
+      </c>
+      <c r="F38" s="3">
+        <f>MONTH(Table469[[#This Row],[DOB]])</f>
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H38" s="3">
+        <f ca="1">IF(Table469[[#This Row],[Birth Month]]&lt;Table469[[#This Row],[Current Month]],0,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>55</v>
       </c>
       <c r="J38" t="s">
         <v>49</v>
@@ -4472,22 +6672,46 @@
         <f>IF(Table469[[#This Row],[DNA]]="Yes","Has Missed Appointment","Has Not Missed Appointment")</f>
         <v>Has Missed Appointment</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" t="str" cm="1">
+        <f t="array" ref="U38">_xlfn.IFS(Table469[[#This Row],[Calculated Age2]]&lt;18,"Safeguarding",AND(Table469[[#This Row],[DNA]]="Yes",Table469[[#This Row],[Appt Count]]&gt;=3),"Escalate",Table469[[#This Row],[DNA]] = "Yes","Reminder",TRUE,"NO action required")</f>
+        <v>Reminder</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D43"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <f>COUNTIFS(Table469[Gender],"F",Table469[DNA],"Yes")</f>
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <f>SUMIFS(Table469[DNA],Table469[Gender],"F",Table469[Calculated Age2],"&gt;25")</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f>AVERAGEIFS(Table469[Calculated Age2],Table469[Gender],"M",Table469[Outcome],"Ongoing")</f>
+        <v>42.333333333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D44"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I44" s="3">
+        <f>COUNTIFS(Table469[Gender],"M",Table469[DNA],"Yes")</f>
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <f>SUMIFS(Table469[DNA],Table469[Gender],"M",Table469[Calculated Age2],"&gt;30",Table469[DNA],"No")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
     </row>
   </sheetData>
@@ -4506,7 +6730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1707823-7409-46EE-A6A7-19D5173EA8D7}">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -6118,7 +8342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17465A-E33E-44CF-9672-9DAA4AFCA8CD}">
   <dimension ref="A3"/>
   <sheetViews>
